--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssdon\OneDrive\Documents\github\anemone-leachate-exposure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssdon\OneDrive\Documents\github\anemone-leachate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A48ADC4-0D15-40E5-83DE-820FC3498B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7F023-993E-4E28-ADCA-F0B9F248FD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -54,9 +54,6 @@
     <t>freeze-LN2</t>
   </si>
   <si>
-    <t>collection</t>
-  </si>
-  <si>
     <t>dow</t>
   </si>
   <si>
@@ -106,6 +103,12 @@
   </si>
   <si>
     <t>change</t>
+  </si>
+  <si>
+    <t>Owen's Beach collection</t>
+  </si>
+  <si>
+    <t>Alki collection</t>
   </si>
 </sst>
 </file>
@@ -470,27 +473,27 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" customWidth="1"/>
-    <col min="5" max="5" width="22.73046875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="12.06640625" customWidth="1"/>
-    <col min="10" max="10" width="9.59765625" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -517,424 +520,415 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45369</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45370</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45371</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45372</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45373</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45374</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45375</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45376</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45377</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45378</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45379</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45380</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45381</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45382</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45383</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45384</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45385</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45386</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45387</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45388</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45389</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45390</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45391</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45392</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45393</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45394</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45395</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45396</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45397</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45398</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45399</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45400</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45401</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45402</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45403</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45404</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45405</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45406</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45407</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
